--- a/biology/Botanique/Melia_dubia/Melia_dubia.xlsx
+++ b/biology/Botanique/Melia_dubia/Melia_dubia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melia dubia est une espèce d'arbres à feuillage caduc de la famille des Meliaceae (même famille que l'acajou et le cedrela) originaire du sud de l'Asie et d'Australie.
-C'est un arbre à la croissance très rapide (14 m en 7 ans en Inde[1]). Il est cultivé pour la production de biomasse et de bois énergie.
+C'est un arbre à la croissance très rapide (14 m en 7 ans en Inde). Il est cultivé pour la production de biomasse et de bois énergie.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre peut mesurer jusqu'à 20 mètres de hauteur.
 </t>
@@ -543,7 +557,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbres à croissance rapide poussant de préférence en région chaude (Zone USDA 10) mais qui préfèrent les sols humides.
 </t>
@@ -574,9 +590,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits de cette espèce peuvent être utilisés dans le traitement de l'hyperglycémie et du diabète[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits de cette espèce peuvent être utilisés dans le traitement de l'hyperglycémie et du diabète.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Melia composita Willd.</t>
         </is>
